--- a/data/others/Causas de muertes 2022 sexo.xlsx
+++ b/data/others/Causas de muertes 2022 sexo.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school Data Sciencs\1er Ano\2do Semestre\Comunicaciones\Principales-Causas-de-Muerte-en-Cuba\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\school Data Sciencs\1er Ano\2do Semestre\Comunicaciones\Principales-Causas-de-Muerte-en-Cuba\data\others\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB3F622D-EA4A-410E-B700-121084113F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6981953A-B3D7-4911-AFE3-79F14FFBA590}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{7E60DECC-DEDC-4EC1-8A77-3BBE4DBF5363}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="93">
   <si>
     <t>17 216</t>
   </si>
@@ -195,16 +195,137 @@
   </si>
   <si>
     <t xml:space="preserve">Cirrosis y otras enfermedades cronicas del higado </t>
+  </si>
+  <si>
+    <t>Anos</t>
+  </si>
+  <si>
+    <t>Ambos sexos</t>
+  </si>
+  <si>
+    <t>23 730</t>
+  </si>
+  <si>
+    <t>426,8</t>
+  </si>
+  <si>
+    <t>21 050</t>
+  </si>
+  <si>
+    <t>374,1</t>
+  </si>
+  <si>
+    <t>15 546</t>
+  </si>
+  <si>
+    <t>279,6</t>
+  </si>
+  <si>
+    <t>11 403</t>
+  </si>
+  <si>
+    <t>202,7</t>
+  </si>
+  <si>
+    <t>6 978</t>
+  </si>
+  <si>
+    <t>125,5</t>
+  </si>
+  <si>
+    <t>6 309</t>
+  </si>
+  <si>
+    <t>112,1</t>
+  </si>
+  <si>
+    <t>14 301</t>
+  </si>
+  <si>
+    <t>257,2</t>
+  </si>
+  <si>
+    <t>10 910</t>
+  </si>
+  <si>
+    <t>193,9</t>
+  </si>
+  <si>
+    <t>2 858</t>
+  </si>
+  <si>
+    <t>51,4</t>
+  </si>
+  <si>
+    <t>3 038</t>
+  </si>
+  <si>
+    <t>54,0</t>
+  </si>
+  <si>
+    <t>3 857</t>
+  </si>
+  <si>
+    <t>69,4</t>
+  </si>
+  <si>
+    <t>2 869</t>
+  </si>
+  <si>
+    <t>51,0</t>
+  </si>
+  <si>
+    <t>2 135</t>
+  </si>
+  <si>
+    <t>38,4</t>
+  </si>
+  <si>
+    <t>1 925</t>
+  </si>
+  <si>
+    <t>34,2</t>
+  </si>
+  <si>
+    <t>1 746</t>
+  </si>
+  <si>
+    <t>31,4</t>
+  </si>
+  <si>
+    <t>2 224</t>
+  </si>
+  <si>
+    <t>39,5</t>
+  </si>
+  <si>
+    <t>1 636</t>
+  </si>
+  <si>
+    <t>29,4</t>
+  </si>
+  <si>
+    <t>7,2</t>
+  </si>
+  <si>
+    <t>1 476</t>
+  </si>
+  <si>
+    <t>26,5</t>
+  </si>
+  <si>
+    <t>5,7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="General_)"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,6 +345,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Courier"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -233,7 +364,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -242,35 +373,57 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal_SA-18-19" xfId="2" xr:uid="{86D37C42-F272-4D5B-9A8B-36E8D7AA1101}"/>
+    <cellStyle name="Normal_SA-18-19_Tabla XV.17" xfId="1" xr:uid="{E4322DD9-D4E0-4FB6-9315-136B15E9BF75}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -602,206 +755,506 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C9445D9B-3BD5-447F-A9A2-DE0E945D1C5D}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="G2" sqref="G2:G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="20" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="G2" s="7">
+        <v>296.7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="G3" s="7">
+        <v>227.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="G4" s="7">
+        <v>102.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="G5" s="7">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="G6" s="7">
+        <v>51.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="G7" s="7">
+        <v>38.200000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="G8" s="7">
+        <v>25.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
+      <c r="G9" s="7">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <v>429</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="G10" s="7">
+        <v>16.399999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>2022</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D11" s="4">
+      <c r="E11" s="3">
         <v>239</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="G11" s="7">
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G12" s="7">
+        <v>400.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="7">
+        <v>240.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G14" s="7">
+        <v>118.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="7">
+        <v>225.3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" s="7">
+        <v>52.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A17" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="7">
+        <v>60.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G18" s="7">
+        <v>36.200000000000003</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G19" s="7">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A20" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E20" s="3">
+        <v>405</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="7">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="6">
+        <v>2021</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E21" s="3">
+        <v>322</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G21" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G22" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>